--- a/data/lca/carbonization.xlsx
+++ b/data/lca/carbonization.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/repos/onearth/platform-v3-backend/src/data/lca/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucas/repos/onearth/lca/data/lca/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C87F2AE-3407-FD47-85D5-3AC9C0675D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688CEC18-D969-484B-9CBF-2116E9EEB6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="25700" xr2:uid="{65D06CC4-9AE7-C247-A1FA-F80350D01C17}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="linear_regression" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,18 +38,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
-  <si>
-    <t>Parâmetro</t>
-  </si>
-  <si>
-    <t>Valor</t>
-  </si>
-  <si>
-    <t>Descrição</t>
-  </si>
-  <si>
-    <t>Referência</t>
-  </si>
   <si>
     <t>a</t>
   </si>
@@ -125,13 +113,25 @@
   <si>
     <t>Média (ton co2e/ton cv)</t>
   </si>
+  <si>
+    <t>parameter</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -346,7 +346,7 @@
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +684,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -696,171 +696,171 @@
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
         <v>-3.3262</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3">
         <v>147.08000000000001</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3">
         <v>-313.8</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>139.13</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>-534.76</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3">
         <v>217.12</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3">
         <v>-676.4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3">
         <v>282.39999999999998</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>-460.68224249999997</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
         <v>194.97093899999999</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -880,28 +880,28 @@
   <sheetData>
     <row r="1" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
